--- a/templates/permiso_fuera_trabajo.xlsx
+++ b/templates/permiso_fuera_trabajo.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -1182,10 +1182,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ1000"/>
+  <dimension ref="A1:AJ999"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1999,31 +1999,27 @@
     </row>
     <row r="21" spans="1:36" ht="18" customHeight="1">
       <c r="A21" s="4"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="O21" s="29"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="50"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
       <c r="U21" s="30"/>
-      <c r="V21" s="19"/>
+      <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -2041,27 +2037,31 @@
     </row>
     <row r="22" spans="1:36" ht="18" customHeight="1">
       <c r="A22" s="4"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="56"/>
+      <c r="H22" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="56"/>
       <c r="U22" s="30"/>
-      <c r="V22" s="1"/>
+      <c r="V22" s="19"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -2079,31 +2079,27 @@
     </row>
     <row r="23" spans="1:36" ht="18" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34"/>
-      <c r="F23" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="56"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="58"/>
       <c r="U23" s="30"/>
-      <c r="V23" s="19"/>
+      <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -2125,8 +2121,8 @@
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
       <c r="H24" s="57"/>
       <c r="I24" s="63"/>
       <c r="J24" s="63"/>
@@ -2163,8 +2159,8 @@
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="57"/>
       <c r="I25" s="63"/>
       <c r="J25" s="63"/>
@@ -2203,19 +2199,19 @@
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="63"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="58"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="64"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="60"/>
       <c r="U26" s="30"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
@@ -2233,28 +2229,28 @@
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
     </row>
-    <row r="27" spans="1:36" ht="18" customHeight="1">
+    <row r="27" spans="1:36" ht="18.75" customHeight="1">
       <c r="A27" s="4"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="64"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="30"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
@@ -2271,77 +2267,77 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
     </row>
-    <row r="28" spans="1:36" ht="18.75" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-    </row>
-    <row r="29" spans="1:36" ht="21.75" customHeight="1">
-      <c r="A29" s="65" t="s">
+    <row r="28" spans="1:36" ht="21.75" customHeight="1">
+      <c r="A28" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="65" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="I29" s="63"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="65" t="s">
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="O29" s="63"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="63"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="35"/>
+      <c r="AB28" s="35"/>
+      <c r="AC28" s="35"/>
+      <c r="AD28" s="35"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="35"/>
+      <c r="AJ28" s="35"/>
+    </row>
+    <row r="29" spans="1:36" ht="7.5" customHeight="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
       <c r="V29" s="35"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
-      <c r="Z29" s="1"/>
+      <c r="Z29" s="35"/>
       <c r="AA29" s="35"/>
       <c r="AB29" s="35"/>
       <c r="AC29" s="35"/>
@@ -2353,66 +2349,68 @@
       <c r="AI29" s="35"/>
       <c r="AJ29" s="35"/>
     </row>
-    <row r="30" spans="1:36" ht="7.5" customHeight="1">
+    <row r="30" spans="1:36" ht="9" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
-      <c r="AF30" s="35"/>
-      <c r="AG30" s="35"/>
-      <c r="AH30" s="35"/>
-      <c r="AI30" s="35"/>
-      <c r="AJ30" s="35"/>
-    </row>
-    <row r="31" spans="1:36" ht="9" customHeight="1">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+    </row>
+    <row r="31" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A31" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="53"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="53"/>
+      <c r="U31" s="53"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
@@ -2429,34 +2427,32 @@
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
     </row>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A32" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
-      <c r="S32" s="53"/>
-      <c r="T32" s="53"/>
-      <c r="U32" s="53"/>
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="40"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
+      <c r="Y32" s="37"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -2469,28 +2465,30 @@
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
     </row>
-    <row r="33" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="39"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="40"/>
+    <row r="33" spans="1:36" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="47"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
@@ -2507,34 +2505,32 @@
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
     </row>
-    <row r="34" spans="1:36" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="47"/>
+    <row r="34" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A34" s="19"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
-      <c r="Y34" s="37"/>
+      <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -2548,14 +2544,14 @@
       <c r="AJ34" s="1"/>
     </row>
     <row r="35" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A35" s="19"/>
+      <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="19"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2567,7 +2563,7 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="19"/>
+      <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
@@ -39217,46 +39213,8 @@
       <c r="AI999" s="1"/>
       <c r="AJ999" s="1"/>
     </row>
-    <row r="1000" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="1"/>
-      <c r="E1000" s="1"/>
-      <c r="F1000" s="1"/>
-      <c r="G1000" s="1"/>
-      <c r="H1000" s="1"/>
-      <c r="I1000" s="1"/>
-      <c r="J1000" s="1"/>
-      <c r="K1000" s="1"/>
-      <c r="L1000" s="1"/>
-      <c r="M1000" s="1"/>
-      <c r="N1000" s="1"/>
-      <c r="O1000" s="1"/>
-      <c r="P1000" s="1"/>
-      <c r="Q1000" s="1"/>
-      <c r="R1000" s="1"/>
-      <c r="S1000" s="1"/>
-      <c r="T1000" s="1"/>
-      <c r="U1000" s="1"/>
-      <c r="V1000" s="1"/>
-      <c r="W1000" s="1"/>
-      <c r="X1000" s="1"/>
-      <c r="Y1000" s="1"/>
-      <c r="Z1000" s="1"/>
-      <c r="AA1000" s="1"/>
-      <c r="AB1000" s="1"/>
-      <c r="AC1000" s="1"/>
-      <c r="AD1000" s="1"/>
-      <c r="AE1000" s="1"/>
-      <c r="AF1000" s="1"/>
-      <c r="AG1000" s="1"/>
-      <c r="AH1000" s="1"/>
-      <c r="AI1000" s="1"/>
-      <c r="AJ1000" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="33">
     <mergeCell ref="A2:N4"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="N6:T6"/>
@@ -39276,22 +39234,20 @@
     <mergeCell ref="H18:T19"/>
     <mergeCell ref="H20:M20"/>
     <mergeCell ref="P20:T20"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="F22:G24"/>
+    <mergeCell ref="H22:T26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="H28:M28"/>
+    <mergeCell ref="N28:U28"/>
+    <mergeCell ref="H31:M31"/>
+    <mergeCell ref="N31:U31"/>
     <mergeCell ref="A32:G32"/>
-    <mergeCell ref="F23:G25"/>
-    <mergeCell ref="H23:T27"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="H29:M29"/>
-    <mergeCell ref="N29:U29"/>
     <mergeCell ref="H32:M32"/>
     <mergeCell ref="N32:U32"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="H33:M33"/>
     <mergeCell ref="N33:U33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="N34:U34"/>
   </mergeCells>
   <conditionalFormatting sqref="H12 U12">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">
@@ -39304,10 +39260,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N34">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N33">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N33">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N32">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/templates/permiso_fuera_trabajo.xlsx
+++ b/templates/permiso_fuera_trabajo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ghost\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\gestionRH\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -102,7 +102,7 @@
     <numFmt numFmtId="165" formatCode="[$-80A]dddd\,\ dd&quot; de &quot;mmmm&quot; de &quot;yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,12 +192,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial Narrow"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -237,15 +231,8 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -270,14 +257,8 @@
         <bgColor rgb="FFDEEAF6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEAF6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="44">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -663,48 +644,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -766,19 +710,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -797,33 +738,33 @@
     <xf numFmtId="166" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -840,7 +781,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
@@ -848,7 +789,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -864,7 +805,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -873,7 +814,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
@@ -883,7 +824,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -899,15 +840,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1185,7 +1117,7 @@
   <dimension ref="A1:AJ999"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1243,22 +1175,22 @@
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" spans="1:36" ht="17.25" customHeight="1">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1283,20 +1215,20 @@
       <c r="AJ2" s="1"/>
     </row>
     <row r="3" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A3" s="63"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1321,20 +1253,20 @@
       <c r="AJ3" s="1"/>
     </row>
     <row r="4" spans="1:36" ht="6.75" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="2"/>
@@ -1406,21 +1338,21 @@
       <c r="E6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="45"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="44"/>
       <c r="H6" s="11"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="47"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="46"/>
       <c r="U6" s="13"/>
       <c r="V6" s="14"/>
       <c r="W6" s="15"/>
@@ -1447,19 +1379,19 @@
       <c r="G7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
       <c r="U7" s="18"/>
       <c r="V7" s="19"/>
       <c r="W7" s="1"/>
@@ -1487,19 +1419,19 @@
       <c r="G8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
       <c r="U8" s="18"/>
       <c r="V8" s="19"/>
       <c r="W8" s="1"/>
@@ -1527,19 +1459,19 @@
       <c r="G9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="78"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="79"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
       <c r="U9" s="18"/>
       <c r="V9" s="19"/>
       <c r="W9" s="1"/>
@@ -1567,19 +1499,19 @@
       <c r="G10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="78"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+      <c r="T10" s="78"/>
       <c r="U10" s="20"/>
       <c r="V10" s="19"/>
       <c r="W10" s="1"/>
@@ -1607,19 +1539,19 @@
       <c r="G11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="78"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
       <c r="U11" s="20"/>
       <c r="V11" s="19"/>
       <c r="W11" s="1"/>
@@ -1647,22 +1579,19 @@
       <c r="G12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="1"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
@@ -1717,28 +1646,28 @@
     </row>
     <row r="14" spans="1:36" ht="18" customHeight="1">
       <c r="A14" s="4"/>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="22"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="21"/>
       <c r="V14" s="19"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -1757,28 +1686,28 @@
     </row>
     <row r="15" spans="1:36" ht="18" customHeight="1">
       <c r="A15" s="4"/>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="23"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="22"/>
       <c r="V15" s="19"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -1797,28 +1726,28 @@
     </row>
     <row r="16" spans="1:36" ht="18" customHeight="1">
       <c r="A16" s="4"/>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="23"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="22"/>
       <c r="V16" s="19"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -1843,10 +1772,10 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1875,28 +1804,28 @@
     </row>
     <row r="18" spans="1:36" ht="21.75" customHeight="1">
       <c r="A18" s="4"/>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="25"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="24"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -1915,26 +1844,26 @@
     </row>
     <row r="19" spans="1:36" ht="21.75" customHeight="1">
       <c r="A19" s="4"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="25"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
+      <c r="S19" s="52"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="24"/>
       <c r="V19" s="19"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -1953,34 +1882,34 @@
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1">
       <c r="A20" s="4"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="48" t="s">
+      <c r="H20" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="28" t="s">
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="29"/>
-      <c r="P20" s="51" t="s">
+      <c r="O20" s="28"/>
+      <c r="P20" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="30"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="29"/>
       <c r="V20" s="19"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -2005,20 +1934,20 @@
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="10"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="29"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -2038,29 +1967,29 @@
     <row r="22" spans="1:36" ht="18" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="55" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="61" t="s">
+      <c r="G22" s="55"/>
+      <c r="H22" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="30"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="29"/>
       <c r="V22" s="19"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
@@ -2079,26 +2008,26 @@
     </row>
     <row r="23" spans="1:36" ht="18" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="63"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="30"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="29"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
@@ -2117,26 +2046,26 @@
     </row>
     <row r="24" spans="1:36" ht="18" customHeight="1">
       <c r="A24" s="4"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="63"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="30"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="29"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -2155,26 +2084,26 @@
     </row>
     <row r="25" spans="1:36" ht="18" customHeight="1">
       <c r="A25" s="4"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="63"/>
-      <c r="S25" s="63"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="30"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="29"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
@@ -2193,26 +2122,26 @@
     </row>
     <row r="26" spans="1:36" ht="18" customHeight="1">
       <c r="A26" s="4"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="60"/>
-      <c r="U26" s="30"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="29"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
@@ -2268,86 +2197,86 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="21.75" customHeight="1">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="65" t="s">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="65" t="s">
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="63"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-      <c r="AH28" s="35"/>
-      <c r="AI28" s="35"/>
-      <c r="AJ28" s="35"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="34"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="34"/>
     </row>
     <row r="29" spans="1:36" ht="7.5" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="34"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="34"/>
+      <c r="AJ29" s="34"/>
     </row>
     <row r="30" spans="1:36" ht="9" customHeight="1">
       <c r="A30" s="4"/>
@@ -2388,29 +2317,29 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="53"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="52"/>
+      <c r="S31" s="52"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
@@ -2427,32 +2356,32 @@
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
     </row>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="39"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="40"/>
+    <row r="32" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="39"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
-      <c r="Y32" s="37"/>
+      <c r="Y32" s="36"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -2465,34 +2394,34 @@
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
     </row>
-    <row r="33" spans="1:36" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="86" t="s">
+    <row r="33" spans="1:36" ht="22.5" customHeight="1">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="47"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="46"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
-      <c r="Y33" s="37"/>
+      <c r="Y33" s="36"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -39249,24 +39178,16 @@
     <mergeCell ref="H33:M33"/>
     <mergeCell ref="N33:U33"/>
   </mergeCells>
-  <conditionalFormatting sqref="H12 U12">
+  <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">
       <formula>NOT(ISERROR(SEARCH(("sindi"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12 U12">
+  <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="con">
       <formula>NOT(ISERROR(SEARCH(("con"),(H12))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N33">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N32">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/templates/permiso_fuera_trabajo.xlsx
+++ b/templates/permiso_fuera_trabajo.xlsx
@@ -102,9 +102,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +210,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -607,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -654,7 +666,7 @@
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -665,12 +677,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,50 +691,39 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,6 +736,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -742,61 +744,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,22 +1132,22 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21" ht="17.25" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1143,20 +1157,20 @@
       <c r="U2" s="1"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -1166,20 +1180,20 @@
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:21" ht="6.75" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="2"/>
@@ -1221,25 +1235,25 @@
       <c r="E6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="73">
         <v>0</v>
       </c>
-      <c r="G6" s="61"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
       <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" ht="19.5" customHeight="1">
@@ -1252,21 +1266,21 @@
       <c r="G7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
       <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" ht="19.5" customHeight="1">
@@ -1279,21 +1293,21 @@
       <c r="G8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
       <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" ht="19.5" customHeight="1">
@@ -1306,21 +1320,21 @@
       <c r="G9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
       <c r="U9" s="13"/>
     </row>
     <row r="10" spans="1:21" ht="19.5" customHeight="1">
@@ -1333,21 +1347,21 @@
       <c r="G10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
       <c r="U10" s="14"/>
     </row>
     <row r="11" spans="1:21" ht="19.5" customHeight="1">
@@ -1360,21 +1374,21 @@
       <c r="G11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
       <c r="U11" s="14"/>
     </row>
     <row r="12" spans="1:21" ht="19.5" customHeight="1">
@@ -1387,21 +1401,21 @@
       <c r="G12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
     </row>
     <row r="13" spans="1:21" ht="10.5" customHeight="1">
       <c r="A13" s="3"/>
@@ -1428,83 +1442,83 @@
     </row>
     <row r="14" spans="1:21" ht="18" customHeight="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="36" t="s">
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="37"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
+      <c r="R14" s="59"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="61"/>
       <c r="U14" s="15"/>
     </row>
     <row r="15" spans="1:21" ht="18" customHeight="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="38" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="37"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="61"/>
       <c r="U15" s="16"/>
     </row>
     <row r="16" spans="1:21" ht="18" customHeight="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="38" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="37"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="61"/>
       <c r="U16" s="16"/>
     </row>
     <row r="17" spans="1:21" ht="10.5" customHeight="1">
@@ -1532,29 +1546,29 @@
     </row>
     <row r="18" spans="1:21" ht="21.75" customHeight="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="75" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="66"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="66"/>
+      <c r="S18" s="66"/>
+      <c r="T18" s="66"/>
       <c r="U18" s="18"/>
     </row>
     <row r="19" spans="1:21" ht="21.75" customHeight="1">
@@ -1565,50 +1579,50 @@
       <c r="E19" s="42"/>
       <c r="F19" s="42"/>
       <c r="G19" s="43"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="78"/>
-      <c r="N19" s="78"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="78"/>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78"/>
-      <c r="S19" s="78"/>
-      <c r="T19" s="78"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
+      <c r="T19" s="68"/>
       <c r="U19" s="18"/>
     </row>
     <row r="20" spans="1:21" ht="18" customHeight="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="44" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="46"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="39"/>
       <c r="N20" s="19" t="s">
         <v>14</v>
       </c>
       <c r="O20" s="20"/>
-      <c r="P20" s="47">
+      <c r="P20" s="40">
         <v>1</v>
       </c>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="46"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="39"/>
       <c r="U20" s="21"/>
     </row>
     <row r="21" spans="1:21" ht="18" customHeight="1">
@@ -1640,25 +1654,25 @@
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="49" t="s">
+      <c r="F22" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="55" t="s">
+      <c r="G22" s="45"/>
+      <c r="H22" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="50"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="45"/>
       <c r="U22" s="21"/>
     </row>
     <row r="23" spans="1:21" ht="18" customHeight="1">
@@ -1667,21 +1681,21 @@
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="52"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
+      <c r="Q23" s="52"/>
+      <c r="R23" s="52"/>
+      <c r="S23" s="52"/>
+      <c r="T23" s="47"/>
       <c r="U23" s="21"/>
     </row>
     <row r="24" spans="1:21" ht="18" customHeight="1">
@@ -1690,21 +1704,21 @@
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="52"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
+      <c r="R24" s="52"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="47"/>
       <c r="U24" s="21"/>
     </row>
     <row r="25" spans="1:21" ht="18" customHeight="1">
@@ -1715,19 +1729,19 @@
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="52"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="47"/>
       <c r="U25" s="21"/>
     </row>
     <row r="26" spans="1:21" ht="18" customHeight="1">
@@ -1738,19 +1752,19 @@
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="54"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="53"/>
+      <c r="R26" s="53"/>
+      <c r="S26" s="53"/>
+      <c r="T26" s="49"/>
       <c r="U26" s="21"/>
     </row>
     <row r="27" spans="1:21" ht="18.75" customHeight="1">
@@ -1777,33 +1791,33 @@
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="1:21" ht="21.75" customHeight="1">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="58" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="58" t="s">
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="52"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
     </row>
     <row r="29" spans="1:21" ht="7.5" customHeight="1">
       <c r="A29" s="3"/>
@@ -1852,7 +1866,7 @@
       <c r="U30" s="3"/>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="41" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="42"/>
@@ -1861,13 +1875,13 @@
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="43"/>
-      <c r="H31" s="59"/>
+      <c r="H31" s="55"/>
       <c r="I31" s="42"/>
       <c r="J31" s="42"/>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
       <c r="M31" s="43"/>
-      <c r="N31" s="59"/>
+      <c r="N31" s="55"/>
       <c r="O31" s="42"/>
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
@@ -1877,62 +1891,62 @@
       <c r="U31" s="42"/>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="67" t="s">
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="67" t="s">
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="O32" s="63"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="64"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="28"/>
     </row>
     <row r="33" spans="1:21" ht="22.5" customHeight="1">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="69" t="s">
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="79" t="s">
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="81"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="36"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" customHeight="1"/>
     <row r="35" spans="1:21" ht="15.75" customHeight="1"/>
@@ -2902,12 +2916,23 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:M32"/>
-    <mergeCell ref="N32:U32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="N33:U33"/>
+    <mergeCell ref="A2:N4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="N6:T6"/>
+    <mergeCell ref="H7:T7"/>
+    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="H9:T9"/>
+    <mergeCell ref="H10:T10"/>
+    <mergeCell ref="H11:T11"/>
+    <mergeCell ref="H12:T12"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:T14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:T15"/>
+    <mergeCell ref="H16:T16"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B18:G19"/>
+    <mergeCell ref="H18:T19"/>
     <mergeCell ref="H20:M20"/>
     <mergeCell ref="P20:T20"/>
     <mergeCell ref="A31:G31"/>
@@ -2919,23 +2944,12 @@
     <mergeCell ref="H31:M31"/>
     <mergeCell ref="N31:U31"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:T15"/>
-    <mergeCell ref="H16:T16"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B18:G19"/>
-    <mergeCell ref="H18:T19"/>
-    <mergeCell ref="H9:T9"/>
-    <mergeCell ref="H10:T10"/>
-    <mergeCell ref="H11:T11"/>
-    <mergeCell ref="H12:T12"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:T14"/>
-    <mergeCell ref="A2:N4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="N6:T6"/>
-    <mergeCell ref="H7:T7"/>
-    <mergeCell ref="H8:T8"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:M32"/>
+    <mergeCell ref="N32:U32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="N33:U33"/>
   </mergeCells>
   <conditionalFormatting sqref="H12">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="sindi">
